--- a/data/trans_dic/P18_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,0%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>76,48%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>42,12%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>16,92%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,45; 47,58</t>
+          <t>28,25; 53,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 17,44</t>
+          <t>4,8; 15,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,94; 24,76</t>
+          <t>13,19; 32,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,9; 15,32</t>
+          <t>7,78; 15,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,49; 90,23</t>
+          <t>2,02; 10,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,71; 49,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,72; 23,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,62; 31,24</t>
+          <t>35,56; 54,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 25,27</t>
+          <t>15,55; 30,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>70,37; 81,33</t>
+          <t>20,21; 31,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,58; 47,12</t>
+          <t>17,29; 26,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,01</t>
+          <t>12,3; 24,81</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>19,1; 26,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 19,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>77,21; 84,37</t>
+          <t>35,22; 50,55</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>12,07; 22,01</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>18,48; 28,42</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 19,89</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>8,7; 17,29</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>26,72%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,59; 32,3</t>
+          <t>18,54; 28,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,83</t>
+          <t>5,12; 15,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 16,11</t>
+          <t>9,82; 17,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 12,89</t>
+          <t>7,33; 13,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,54; 93,81</t>
+          <t>7,22; 16,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,03; 36,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 18,27</t>
+          <t>24,98; 36,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 17,43</t>
+          <t>7,55; 15,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,93; 91,45</t>
+          <t>13,87; 20,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,05; 32,98</t>
+          <t>10,44; 17,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,3</t>
+          <t>4,89; 9,73</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 16,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 13,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>88,39; 92,06</t>
+          <t>23,02; 31,24</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 13,45</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 17,56</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 13,88</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 11,92</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9,73%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,74; 31,86</t>
+          <t>16,88; 29,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 14,23</t>
+          <t>2,35; 7,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,61</t>
+          <t>4,32; 11,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,04</t>
+          <t>3,89; 8,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>86,92; 96,28</t>
+          <t>2,64; 7,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,23; 23,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 16,03</t>
+          <t>14,33; 24,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,33</t>
+          <t>3,24; 8,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,03; 97,21</t>
+          <t>9,25; 15,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,22; 26,62</t>
+          <t>6,59; 11,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 11,15</t>
+          <t>2,99; 7,51</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>90,92; 96,03</t>
+          <t>17,01; 24,61</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 7,13</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7,66; 12,51</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 9,0</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 6,93</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>33,19%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,96; 32,53</t>
+          <t>28,54; 35,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,13</t>
+          <t>7,29; 14,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 15,28</t>
+          <t>11,93; 20,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,31; 92,46</t>
+          <t>5,0; 11,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 33,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 13,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 19,6</t>
+          <t>31,02; 37,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,88; 15,77</t>
+          <t>10,15; 16,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,14; 87,98</t>
+          <t>14,99; 23,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,5; 32,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 11,47</t>
+          <t>5,49; 11,96</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 16,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>86,59; 89,72</t>
+          <t>30,78; 35,63</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 13,96</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 20,63</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 10,21</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29,75%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31,76%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>30,78%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26,98; 32,59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 11,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,13; 15,88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 10,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 9,99</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29,26; 34,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,0; 13,75</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 19,61</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,03; 15,82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 10,28</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>29,01; 32,7</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>8,93; 11,77</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>13,81; 16,81</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 12,74</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 9,48</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83487</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30595</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>99806</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>79991</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21466</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>116596</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>91261</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>152738</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>188641</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>109344</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>200083</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>121857</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>252545</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>268631</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>130810</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60901; 116147</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15897; 52410</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>66542; 164992</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>55033; 111081</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8938; 44222</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>92251; 142497</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63647; 125922</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>123690; 191634</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>152192; 230417</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>77786; 156817</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>167279; 240107</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>89450; 163072</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>206311; 317330</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>222741; 315791</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>93425; 185728</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>148444</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79376</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>154442</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>157046</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>117338</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>211335</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>103752</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>205353</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>197268</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>75187</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>359779</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>183128</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>359795</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>354314</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>192525</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>118845; 184374</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47236; 138933</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>117477; 208556</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>117258; 216329</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>77027; 177471</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>176209; 255890</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>74797; 154617</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>167941; 246015</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>155954; 258510</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>52688; 104749</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>309929; 420567</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>136712; 257440</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>304527; 422735</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>294117; 429419</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>144563; 255654</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>105954</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31669</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>58677</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>62992</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39292</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>98525</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>42410</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>113935</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>101035</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44004</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>204479</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>74079</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>172612</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>164028</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>83296</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>76553; 132877</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16787; 54268</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36159; 94486</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>42369; 88535</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21775; 65319</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76213; 128149</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24780; 65511</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>86754; 143706</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>76338; 129785</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26819; 67391</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>167580; 242481</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>52077; 105451</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>135887; 222031</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>132024; 202242</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>58253; 119428</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>548.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>667520</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>145642</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>133294</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>79923</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>698446</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>180570</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>141710</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>81110</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1365966</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>326212</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>275004</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>590647; 740463</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>104109; 206420</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>101808; 173535</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54117; 122264</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>634670; 762478</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>141330; 225142</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>110805; 176664</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53469; 116549</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1266615; 1466278</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>265689; 393698</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>228589; 328463</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>118773; 210118</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>868.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>439.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1005405</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>287282</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>446220</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>300029</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>258020</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1124902</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>417993</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>613736</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>486944</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>309645</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2130307</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>705275</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1059956</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>786973</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>567665</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>912008; 1101508</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>224423; 377646</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>377483; 538620</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>246714; 361256</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>198662; 341614</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1036349; 1206004</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>355749; 489118</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>549274; 686173</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>424946; 558875</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>259107; 367981</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2008153; 2263709</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>620877; 818645</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>951702; 1158709</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>700626; 883165</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>487225; 663138</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
